--- a/KasaCloudDevices/Documentation.xlsx
+++ b/KasaCloudDevices/Documentation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\0 - Hubitat\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DEA37-A628-4598-AAC4-5376303B6174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842A471C-678C-4B50-89CA-8D10356C8103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3233" yWindow="204" windowWidth="14889" windowHeight="13856" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="5312" yWindow="231" windowWidth="19440" windowHeight="13857" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
     <sheet name="Hubitat Information" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hubitat Information'!$B$1:$H$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hubitat Information'!$B$1:$H$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="208">
   <si>
     <t>Preferences</t>
   </si>
@@ -68,72 +68,6 @@
   </si>
   <si>
     <t>Driver File</t>
-  </si>
-  <si>
-    <t>HS-100</t>
-  </si>
-  <si>
-    <t>HS-103</t>
-  </si>
-  <si>
-    <t>HS-105</t>
-  </si>
-  <si>
-    <t>HS-200</t>
-  </si>
-  <si>
-    <t>HS-210</t>
-  </si>
-  <si>
-    <t>KP-100</t>
-  </si>
-  <si>
-    <t>HS-107</t>
-  </si>
-  <si>
-    <t>KP-200</t>
-  </si>
-  <si>
-    <t>KP-400</t>
-  </si>
-  <si>
-    <t>HS-220</t>
-  </si>
-  <si>
-    <t>HS-110</t>
-  </si>
-  <si>
-    <t>KB-100</t>
-  </si>
-  <si>
-    <t>LB-100</t>
-  </si>
-  <si>
-    <t>LB-110</t>
-  </si>
-  <si>
-    <t>KL-110</t>
-  </si>
-  <si>
-    <t>LB-200</t>
-  </si>
-  <si>
-    <t>LB-120</t>
-  </si>
-  <si>
-    <t>KL-120</t>
-  </si>
-  <si>
-    <t>KB-130</t>
-  </si>
-  <si>
-    <t>LB-130</t>
-  </si>
-  <si>
-    <t>KL-130</t>
-  </si>
-  <si>
-    <t>LB-230</t>
   </si>
   <si>
     <t>TP-LinkPlug-Switch(Hubitat).groovy</t>
@@ -324,16 +258,10 @@
     <t>TP-LinkEM-Plug(Hubitat).groovy</t>
   </si>
   <si>
-    <t>Important</t>
-  </si>
-  <si>
     <t>You must first install the device using the TP-Link Kasa Application.  That is the only way to connect the device to the local LAN.</t>
   </si>
   <si>
     <t>TP-LinkEM-Multi-Plug(Hubitat).groovy</t>
-  </si>
-  <si>
-    <t>HS-300</t>
   </si>
   <si>
     <t>TP-LinkMulti-Plug(Hubitat).groovy</t>
@@ -424,15 +352,9 @@
     <t>With reference to the device table above and the column Command Group, the functionality of each device described below.</t>
   </si>
   <si>
-    <t>KP-115</t>
-  </si>
-  <si>
     <t>TP-Link Model Examples</t>
   </si>
   <si>
-    <t>KL-50</t>
-  </si>
-  <si>
     <t>Group 3, 4 ,5, 6.</t>
   </si>
   <si>
@@ -518,6 +440,285 @@
   </si>
   <si>
     <t>Groups: All.  Reboots the device.  For multiplugs it reboots the entire power strip.</t>
+  </si>
+  <si>
+    <t>KP303</t>
+  </si>
+  <si>
+    <t>HS100</t>
+  </si>
+  <si>
+    <t>HS103</t>
+  </si>
+  <si>
+    <t>HS105</t>
+  </si>
+  <si>
+    <t>HS200</t>
+  </si>
+  <si>
+    <t>HS107</t>
+  </si>
+  <si>
+    <t>HS220</t>
+  </si>
+  <si>
+    <t>HS110</t>
+  </si>
+  <si>
+    <t>HS300</t>
+  </si>
+  <si>
+    <t>KB100</t>
+  </si>
+  <si>
+    <t>KL110</t>
+  </si>
+  <si>
+    <t>LB120</t>
+  </si>
+  <si>
+    <t>KB130</t>
+  </si>
+  <si>
+    <t>LB230</t>
+  </si>
+  <si>
+    <t>HS210</t>
+  </si>
+  <si>
+    <t>KP400</t>
+  </si>
+  <si>
+    <t>KP115</t>
+  </si>
+  <si>
+    <t>LB100</t>
+  </si>
+  <si>
+    <t>LB200</t>
+  </si>
+  <si>
+    <t>KL120</t>
+  </si>
+  <si>
+    <t>LB130</t>
+  </si>
+  <si>
+    <t>KP100</t>
+  </si>
+  <si>
+    <t>KP200</t>
+  </si>
+  <si>
+    <t>LB110</t>
+  </si>
+  <si>
+    <t>KL50</t>
+  </si>
+  <si>
+    <t>KL130</t>
+  </si>
+  <si>
+    <t>KL125</t>
+  </si>
+  <si>
+    <t>kl430</t>
+  </si>
+  <si>
+    <t>KL60</t>
+  </si>
+  <si>
+    <t>Troubleshooting and Problem Reporting Guide</t>
+  </si>
+  <si>
+    <t>Installation Issues</t>
+  </si>
+  <si>
+    <t>Device(s) not on Devices to add list (Add Kasa Devices to Hibutat page)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>Press next and then Install Kasa Devices
+* If device(s) present, continue installation.</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Verify that the device(s) is working using the Kasa Phone App</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compare device(s) IP to that of LAN to assure on the same segment.  Example:
+* Hub IP: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>192.168.50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.121 (segment in bold)
+* Device IP: 192.168.50.122 is OK.  192.168.0.122 is on different segment</t>
+    </r>
+  </si>
+  <si>
+    <t>If on different segment, the App Main page includes "Use Alternate Lan Segment" option.</t>
+  </si>
+  <si>
+    <t>c.</t>
+  </si>
+  <si>
+    <t>Verify your device is not installed on a protected WiFi Network (i.e., different SSID on same router).</t>
+  </si>
+  <si>
+    <t>Application generates an error message on the Application display</t>
+  </si>
+  <si>
+    <t>Open logging in a separate page</t>
+  </si>
+  <si>
+    <t>Open / Install the app from the apps page.</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Select "Enable debug logging for 30 minutes.</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>After error, go to logging page and select Kasa Integration .</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>You select a device, but it does not install.</t>
+  </si>
+  <si>
+    <t>Close logs (if open).  Open the log page and go to Past logs.</t>
+  </si>
+  <si>
+    <t>Select Kasa Integration</t>
+  </si>
+  <si>
+    <t>Look for an entry for an ERRO entry similar to the below</t>
+  </si>
+  <si>
+    <t>[KasaInt/6.3.0]: Failed to install device.
+Device: D84732FC5479={feature=null, ip=192.168.50.119, alias=Couch Left, model=KL130, type=Kasa Color Bulb, deviceId=8012003F8FA029BC7B7FB2C17EAEA4831D0EAD25, dni=D84732FC5479}
+Driver: Dev Kasa Color Bulb</t>
+  </si>
+  <si>
+    <t>If this message appears, the named Driver was not detected.</t>
+  </si>
+  <si>
+    <t>f.</t>
+  </si>
+  <si>
+    <t>Install driver "driver" and try again.</t>
+  </si>
+  <si>
+    <t>g.</t>
+  </si>
+  <si>
+    <t>Provide log data and description of the error per instructions at bottom of this guide.</t>
+  </si>
+  <si>
+    <t>If failure persists, rovide log data and description of the error per instructions at bottom of this guide.</t>
+  </si>
+  <si>
+    <t>Operations Issue</t>
+  </si>
+  <si>
+    <t>A Function does not operate or operates with errors.</t>
+  </si>
+  <si>
+    <t>Open a new Hubitat Logs page</t>
+  </si>
+  <si>
+    <t>Save preferences and wait 1 minute.</t>
+  </si>
+  <si>
+    <t>While observing the device, complete and On / Off / Refresh sequence with 5 seconds between presses.</t>
+  </si>
+  <si>
+    <t>If error was with a specific function (other than On/Off/Refresh) execute that function.</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Copy log page data (as text) and send in accordance with information at the bottom of the page.</t>
+  </si>
+  <si>
+    <t>You get error or warning message while running a specific function.</t>
+  </si>
+  <si>
+    <t>Om the device's Edit Page, go to the preferences and assure the following:
+* 30 minutes of debug logging is NOT selected (is white).
+* Enable description text logging is selected (is blue).</t>
+  </si>
+  <si>
+    <t>On the device's Edit Page, go to preferences.
+* Select "30 minutes of debug logging"
+Save Prefernces</t>
+  </si>
+  <si>
+    <t>Close any logs page that is open then open a NEW logs page</t>
+  </si>
+  <si>
+    <t>Execute the function that causes the error</t>
+  </si>
+  <si>
+    <t>Capture the error message and a description of the function causing error for inclusion in report.</t>
+  </si>
+  <si>
+    <t>If the error appears, copy the log and include in error report.</t>
+  </si>
+  <si>
+    <t>Reporting Errors</t>
+  </si>
+  <si>
+    <t>Report a BRIEF summary of the error in the Hubitat Community Forum "[RELEASE] TP-Link/Kasa Plug, Switch, and Bulb integration"</t>
+  </si>
+  <si>
+    <t>Provide a detailed report to @davegut via Private Message.  Include:</t>
+  </si>
+  <si>
+    <t>Link:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://community.hubitat.com/t/release-tp-link-kasa-plug-switch-and-bulb-integration/1675</t>
+  </si>
+  <si>
+    <t>A short text description of the problem.</t>
+  </si>
+  <si>
+    <t>Data collected in accordance with this troubleshooting guide.</t>
+  </si>
+  <si>
+    <t>Data provided should be in text format.  This is easier to analyze than screen shots.</t>
   </si>
 </sst>
 </file>
@@ -559,7 +760,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +788,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -783,55 +1008,103 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,62 +1143,173 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,10 +1628,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H14"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D118" sqref="B1:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.25"/>
@@ -1262,48 +1646,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="2:8" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1312,9 +1696,9 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1323,9 +1707,9 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="12" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1334,9 +1718,9 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="12" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1345,9 +1729,9 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1356,9 +1740,9 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1367,9 +1751,9 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="12" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1378,9 +1762,9 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="12" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1389,9 +1773,9 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="12" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1400,9 +1784,9 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="12" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1411,9 +1795,9 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="12" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1422,9 +1806,9 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="12" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1433,930 +1817,1613 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="35" t="s">
+      <c r="B17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="41">
+        <v>1</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="H18" s="46"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="41">
+        <v>1</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="30">
+        <v>2</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="H22" s="12"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="37">
+        <v>3</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="37">
+        <v>3</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="30">
+        <v>4</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="25">
+      <c r="H25" s="12"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="30">
+        <v>5</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="30">
+        <v>6</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>2</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="2:8" ht="110.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="2:8" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="20"/>
+      <c r="C35" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+    </row>
+    <row r="37" spans="2:8" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B38" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="35">
-        <v>1</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="34"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16">
-        <v>2</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="21">
-        <v>3</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="21">
-        <v>3</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="16">
-        <v>4</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16">
-        <v>5</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="16">
-        <v>6</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="48">
-        <v>2</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="2:13" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
-      <c r="C31" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="2:13" ht="110.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
-      <c r="C32" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="2:8" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-    </row>
-    <row r="36" spans="2:8" s="51" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
-        <v>130</v>
-      </c>
+      <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="12" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="12" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E42" s="11"/>
       <c r="F42" s="12" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="12" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="2:8" ht="48.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="12" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="48.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="12" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="12" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="12" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="2:8" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+    </row>
+    <row r="51" spans="2:8" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="12" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="12" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="12" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="12" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="12" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="12" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="D58" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="E58" s="11"/>
       <c r="F58" s="12" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C59" s="11"/>
-      <c r="D59" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="12" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="12" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="12" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="12" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="12" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="12" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="13" t="s">
+    <row r="65" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+    <row r="67" spans="1:12" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="1:12" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="B68" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="1:12" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="54"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="67"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="79"/>
+      <c r="C79" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="73"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="79"/>
+      <c r="C80" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="73"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="79"/>
+      <c r="C81" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="73"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="79"/>
+      <c r="C82" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="73"/>
+    </row>
+    <row r="83" spans="2:8" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="80"/>
+      <c r="C83" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="77"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="55">
+        <v>2</v>
+      </c>
+      <c r="C84" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+    </row>
+    <row r="85" spans="2:8" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="58"/>
+      <c r="C85" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="62"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="58"/>
+      <c r="C86" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="62"/>
+    </row>
+    <row r="87" spans="2:8" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="62"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="58"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="62"/>
+    </row>
+    <row r="89" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="63"/>
+      <c r="C89" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="62"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="81">
+        <v>3</v>
+      </c>
+      <c r="C90" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="84"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="85"/>
+      <c r="C91" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="84"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="85"/>
+      <c r="C92" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="84"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="85"/>
+      <c r="C93" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="84"/>
+    </row>
+    <row r="94" spans="2:8" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="85"/>
+      <c r="C94" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="84"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="85"/>
+      <c r="C95" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="84"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="85"/>
+      <c r="C96" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="84"/>
+    </row>
+    <row r="97" spans="2:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="88"/>
+      <c r="C97" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="84"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="67"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="55">
+        <v>1</v>
+      </c>
+      <c r="C99" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" s="90"/>
+      <c r="E99" s="90"/>
+      <c r="F99" s="90"/>
+      <c r="G99" s="90"/>
+      <c r="H99" s="91"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="92"/>
+      <c r="C100" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="62"/>
+    </row>
+    <row r="101" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="92"/>
+      <c r="C101" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="62"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="92"/>
+      <c r="C102" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="62"/>
+    </row>
+    <row r="103" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="92"/>
+      <c r="C103" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="62"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="92"/>
+      <c r="C104" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="62"/>
+    </row>
+    <row r="105" spans="2:8" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="93"/>
+      <c r="C105" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="62"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="78">
+        <v>2</v>
+      </c>
+      <c r="C106" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="73"/>
+    </row>
+    <row r="107" spans="2:8" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="94"/>
+      <c r="C107" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="E107" s="95"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="95"/>
+      <c r="H107" s="96"/>
+    </row>
+    <row r="108" spans="2:8" ht="52.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="94"/>
+      <c r="C108" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="95"/>
+      <c r="H108" s="96"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="94"/>
+      <c r="C109" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E109" s="95"/>
+      <c r="F109" s="95"/>
+      <c r="G109" s="95"/>
+      <c r="H109" s="96"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="94"/>
+      <c r="C110" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D110" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="E110" s="95"/>
+      <c r="F110" s="95"/>
+      <c r="G110" s="95"/>
+      <c r="H110" s="96"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="97"/>
+      <c r="C111" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="E111" s="95"/>
+      <c r="F111" s="95"/>
+      <c r="G111" s="95"/>
+      <c r="H111" s="96"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="67"/>
+    </row>
+    <row r="113" spans="2:8" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="98">
+        <v>1</v>
+      </c>
+      <c r="C113" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="D113" s="100"/>
+      <c r="E113" s="100"/>
+      <c r="F113" s="100"/>
+      <c r="G113" s="100"/>
+      <c r="H113" s="100"/>
+    </row>
+    <row r="114" spans="2:8" ht="27.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="101"/>
+      <c r="C114" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="D114" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="E114" s="102"/>
+      <c r="F114" s="102"/>
+      <c r="G114" s="102"/>
+      <c r="H114" s="102"/>
+    </row>
+    <row r="115" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="103">
+        <v>2</v>
+      </c>
+      <c r="C115" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="94"/>
+      <c r="C116" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="69"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="94"/>
+      <c r="C117" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="97"/>
+      <c r="C118" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="146">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
+  <mergeCells count="195">
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:H67"/>
     <mergeCell ref="B68:E68"/>
     <mergeCell ref="F68:H68"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E25:F27"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="F70:H70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -2369,108 +3436,49 @@
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:H72"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <pageSetup scale="56" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <rowBreaks count="4" manualBreakCount="4">
     <brk id="15" max="16383" man="1"/>
+    <brk id="35" max="16383" man="1"/>
+    <brk id="65" max="16383" man="1"/>
+    <brk id="75" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/KasaCloudDevices/Documentation.xlsx
+++ b/KasaCloudDevices/Documentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\0 - Hubitat\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - HubitatActive\KasaDevices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842A471C-678C-4B50-89CA-8D10356C8103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD6577D-0913-4C8C-B738-E5E0476B3B62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5312" yWindow="231" windowWidth="19440" windowHeight="13857" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hubitat Information" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hubitat Information'!$B$1:$H$118</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hubitat Information'!$B$1:$H$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="209">
   <si>
     <t>Preferences</t>
   </si>
@@ -720,12 +720,15 @@
   <si>
     <t>Data provided should be in text format.  This is easier to analyze than screen shots.</t>
   </si>
+  <si>
+    <t>Kasa Integration Installation, Reference, and Troubleshooting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +758,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -997,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1029,17 +1039,230 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1050,6 +1273,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1059,13 +1291,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,239 +1309,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,10 +1641,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D118" sqref="B1:H118"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D119" sqref="B1:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.25"/>
@@ -1645,394 +1658,390 @@
     <col min="11" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:8" ht="25.15" x14ac:dyDescent="0.25">
+      <c r="B1" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="2:8" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+    </row>
+    <row r="3" spans="2:8" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+    </row>
+    <row r="4" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C4" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+    </row>
+    <row r="5" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="92">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="2:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+    </row>
+    <row r="6" spans="2:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="93"/>
+      <c r="C6" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="93"/>
+      <c r="C7" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+    </row>
+    <row r="8" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="93"/>
+      <c r="C8" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+    </row>
+    <row r="9" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="93"/>
+      <c r="C9" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+    </row>
+    <row r="10" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="93"/>
+      <c r="C10" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="93"/>
+      <c r="C11" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+    </row>
+    <row r="12" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="93"/>
+      <c r="C12" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="93"/>
+      <c r="C13" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="93"/>
+      <c r="C14" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="93"/>
+      <c r="C15" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="94"/>
+      <c r="C16" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
+    </row>
+    <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="21" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="21" t="s">
+      <c r="F18" s="82"/>
+      <c r="G18" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="H18" s="82"/>
+    </row>
+    <row r="19" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E19" s="76">
         <v>1</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="45" t="s">
+      <c r="F19" s="77"/>
+      <c r="G19" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
+      <c r="H19" s="79"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="41">
-        <v>1</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="46"/>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="B21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="76">
+        <v>1</v>
+      </c>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="79"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="30">
-        <v>2</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="12"/>
+    <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="37">
-        <v>3</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="40"/>
+      <c r="E23" s="71">
+        <v>2</v>
+      </c>
+      <c r="F23" s="71"/>
+      <c r="G23" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="67"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="37">
+      <c r="B24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="74">
         <v>3</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="40"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="73"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="30">
-        <v>4</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="12"/>
+    <row r="25" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="74">
+        <v>3</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="73"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="71">
+        <v>4</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="67"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="B27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -2040,20 +2049,14 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>144</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="30">
-        <v>5</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="12"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -2061,22 +2064,20 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="30">
-        <v>6</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="71">
+        <v>5</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="67"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -2084,1347 +2085,1263 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="E30" s="71">
+        <v>6</v>
+      </c>
+      <c r="F30" s="71"/>
+      <c r="G30" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="67"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="18">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="92">
         <v>2</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="2:13" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+    </row>
+    <row r="33" spans="2:8" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="93"/>
+      <c r="C33" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88"/>
+    </row>
+    <row r="34" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="93"/>
+      <c r="C34" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="2:8" ht="110.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="88"/>
+    </row>
+    <row r="35" spans="2:8" ht="110.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="93"/>
+      <c r="C35" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="2:8" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88"/>
+    </row>
+    <row r="36" spans="2:8" ht="34.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="94"/>
+      <c r="C36" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="s">
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="51"/>
-    </row>
-    <row r="37" spans="2:8" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="97"/>
+    </row>
+    <row r="38" spans="2:8" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B38" s="30" t="s">
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="88"/>
+    </row>
+    <row r="39" spans="2:8" s="1" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B39" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="C39" s="71"/>
+      <c r="D39" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30" t="s">
+      <c r="E39" s="71"/>
+      <c r="F39" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12" t="s">
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+    </row>
+    <row r="41" spans="2:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
+      <c r="C41" s="66"/>
+      <c r="D41" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12" t="s">
+      <c r="E41" s="66"/>
+      <c r="F41" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12" t="s">
+      <c r="E42" s="66"/>
+      <c r="F42" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12" t="s">
+      <c r="E43" s="66"/>
+      <c r="F43" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12" t="s">
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+    </row>
+    <row r="45" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12" t="s">
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="2:8" ht="48.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+    </row>
+    <row r="46" spans="2:8" ht="48.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11" t="s">
+      <c r="C46" s="66"/>
+      <c r="D46" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12" t="s">
+      <c r="E46" s="66"/>
+      <c r="F46" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+    </row>
+    <row r="47" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
+      <c r="C47" s="66"/>
+      <c r="D47" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12" t="s">
+      <c r="E47" s="66"/>
+      <c r="F47" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11" t="s">
+      <c r="C48" s="66"/>
+      <c r="D48" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12" t="s">
+      <c r="E48" s="66"/>
+      <c r="F48" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
+      <c r="C49" s="66"/>
+      <c r="D49" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12" t="s">
+      <c r="E49" s="66"/>
+      <c r="F49" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="27" t="s">
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+    </row>
+    <row r="50" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="30" t="s">
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="70"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30" t="s">
+      <c r="C51" s="71"/>
+      <c r="D51" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30" t="s">
+      <c r="E51" s="71"/>
+      <c r="F51" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-    </row>
-    <row r="51" spans="2:8" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="11" t="s">
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+    </row>
+    <row r="52" spans="2:8" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11" t="s">
+      <c r="C52" s="66"/>
+      <c r="D52" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12" t="s">
+      <c r="E52" s="66"/>
+      <c r="F52" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="11" t="s">
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
+      <c r="C53" s="66"/>
+      <c r="D53" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12" t="s">
+      <c r="E53" s="66"/>
+      <c r="F53" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11" t="s">
+      <c r="C54" s="66"/>
+      <c r="D54" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12" t="s">
+      <c r="E54" s="66"/>
+      <c r="F54" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
+      <c r="C55" s="66"/>
+      <c r="D55" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12" t="s">
+      <c r="E55" s="66"/>
+      <c r="F55" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11" t="s">
+      <c r="C56" s="66"/>
+      <c r="D56" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12" t="s">
+      <c r="E56" s="66"/>
+      <c r="F56" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11" t="s">
+      <c r="C57" s="66"/>
+      <c r="D57" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12" t="s">
+      <c r="E57" s="66"/>
+      <c r="F57" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="11" t="s">
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+    </row>
+    <row r="58" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11" t="s">
+      <c r="C58" s="66"/>
+      <c r="D58" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12" t="s">
+      <c r="E58" s="66"/>
+      <c r="F58" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11" t="s">
+      <c r="C59" s="66"/>
+      <c r="D59" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12" t="s">
+      <c r="E59" s="66"/>
+      <c r="F59" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="11" t="s">
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12" t="s">
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11" t="s">
+      <c r="C61" s="66"/>
+      <c r="D61" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12" t="s">
+      <c r="E61" s="66"/>
+      <c r="F61" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="11" t="s">
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11" t="s">
+      <c r="C62" s="66"/>
+      <c r="D62" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12" t="s">
+      <c r="E62" s="66"/>
+      <c r="F62" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11" t="s">
+      <c r="C63" s="66"/>
+      <c r="D63" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12" t="s">
+      <c r="E63" s="66"/>
+      <c r="F63" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11" t="s">
+      <c r="C64" s="66"/>
+      <c r="D64" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12" t="s">
+      <c r="E64" s="66"/>
+      <c r="F64" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="11" t="s">
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11" t="s">
+      <c r="C65" s="66"/>
+      <c r="D65" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12" t="s">
+      <c r="E65" s="66"/>
+      <c r="F65" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="11" t="s">
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+    </row>
+    <row r="66" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11" t="s">
+      <c r="C66" s="66"/>
+      <c r="D66" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12" t="s">
+      <c r="E66" s="66"/>
+      <c r="F66" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="27" t="s">
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="70"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
+    <row r="68" spans="1:12" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="14" t="s">
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+    </row>
+    <row r="70" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="14" t="s">
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="14" t="s">
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-    </row>
-    <row r="71" spans="1:12" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+    </row>
+    <row r="72" spans="1:12" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14" t="s">
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+    </row>
+    <row r="73" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14" t="s">
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="73" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="s">
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+    </row>
+    <row r="74" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="14" t="s">
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="13" t="s">
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+    </row>
+    <row r="75" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="14" t="s">
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-    </row>
-    <row r="75" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="13" t="s">
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+    </row>
+    <row r="76" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="14" t="s">
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="52" t="s">
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="54"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="65" t="s">
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="63"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="67"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="78">
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="41"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="38">
         <v>1</v>
       </c>
-      <c r="C78" s="69" t="s">
+      <c r="C79" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="79"/>
-      <c r="C79" s="68" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="59"/>
+      <c r="C80" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D80" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="73"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="79"/>
-      <c r="C80" s="68" t="s">
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="34"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="59"/>
+      <c r="C81" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D81" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="73"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="79"/>
-      <c r="C81" s="74" t="s">
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="34"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="59"/>
+      <c r="C82" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D81" s="71" t="s">
+      <c r="D82" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="73"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="79"/>
-      <c r="C82" s="68" t="s">
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="34"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="59"/>
+      <c r="C83" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D82" s="71" t="s">
+      <c r="D83" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="73"/>
-    </row>
-    <row r="83" spans="2:8" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="80"/>
-      <c r="C83" s="68" t="s">
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="34"/>
+    </row>
+    <row r="84" spans="2:8" ht="37.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="60"/>
+      <c r="C84" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D83" s="75" t="s">
+      <c r="D84" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="77"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="55">
-        <v>2</v>
-      </c>
-      <c r="C84" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
+      <c r="E84" s="57"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-    </row>
-    <row r="85" spans="2:8" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="58"/>
-      <c r="C85" s="59" t="s">
+      <c r="H84" s="58"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="29">
+        <v>2</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="2:8" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="48"/>
+      <c r="C86" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D86" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="62"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="58"/>
-      <c r="C86" s="55" t="s">
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="47"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="48"/>
+      <c r="C87" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D86" s="60" t="s">
+      <c r="D87" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="62"/>
-    </row>
-    <row r="87" spans="2:8" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="60" t="s">
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="47"/>
+    </row>
+    <row r="88" spans="2:8" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="62"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="58"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="60" t="s">
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="47"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="48"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="62"/>
-    </row>
-    <row r="89" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="63"/>
-      <c r="C89" s="64" t="s">
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="47"/>
+    </row>
+    <row r="90" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="49"/>
+      <c r="C90" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D89" s="60" t="s">
+      <c r="D90" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="62"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="81">
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="47"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="53">
         <v>3</v>
       </c>
-      <c r="C90" s="82" t="s">
+      <c r="C91" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="84"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="85"/>
-      <c r="C91" s="86" t="s">
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="52"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="54"/>
+      <c r="C92" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="87" t="s">
+      <c r="D92" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="84"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="85"/>
-      <c r="C92" s="86" t="s">
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="52"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="54"/>
+      <c r="C93" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="87" t="s">
+      <c r="D93" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="84"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="85"/>
-      <c r="C93" s="86" t="s">
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="52"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="54"/>
+      <c r="C94" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="87" t="s">
+      <c r="D94" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="84"/>
-    </row>
-    <row r="94" spans="2:8" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="85"/>
-      <c r="C94" s="86" t="s">
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="52"/>
+    </row>
+    <row r="95" spans="2:8" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="54"/>
+      <c r="C95" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D94" s="87" t="s">
+      <c r="D95" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="84"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="85"/>
-      <c r="C95" s="86" t="s">
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="52"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="54"/>
+      <c r="C96" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D95" s="87" t="s">
+      <c r="D96" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="83"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="84"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="85"/>
-      <c r="C96" s="86" t="s">
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="52"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="54"/>
+      <c r="C97" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D96" s="87" t="s">
+      <c r="D97" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="84"/>
-    </row>
-    <row r="97" spans="2:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="88"/>
-      <c r="C97" s="86" t="s">
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="52"/>
+    </row>
+    <row r="98" spans="2:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="55"/>
+      <c r="C98" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D97" s="87" t="s">
+      <c r="D98" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="84"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="65" t="s">
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="52"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="67"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="55">
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="41"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="29">
         <v>1</v>
       </c>
-      <c r="C99" s="89" t="s">
+      <c r="C100" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
-      <c r="H99" s="91"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="92"/>
-      <c r="C100" s="59" t="s">
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="44"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="30"/>
+      <c r="C101" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="60" t="s">
+      <c r="D101" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="62"/>
-    </row>
-    <row r="101" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="92"/>
-      <c r="C101" s="59" t="s">
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="47"/>
+    </row>
+    <row r="102" spans="2:8" ht="47.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="30"/>
+      <c r="C102" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D101" s="60" t="s">
+      <c r="D102" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="62"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="92"/>
-      <c r="C102" s="59" t="s">
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="47"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="30"/>
+      <c r="C103" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D102" s="60" t="s">
+      <c r="D103" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="61"/>
-      <c r="H102" s="62"/>
-    </row>
-    <row r="103" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="92"/>
-      <c r="C103" s="59" t="s">
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="47"/>
+    </row>
+    <row r="104" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="30"/>
+      <c r="C104" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D103" s="60" t="s">
+      <c r="D104" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="62"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="92"/>
-      <c r="C104" s="59" t="s">
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="47"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="30"/>
+      <c r="C105" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D104" s="60" t="s">
+      <c r="D105" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="62"/>
-    </row>
-    <row r="105" spans="2:8" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="93"/>
-      <c r="C105" s="59" t="s">
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="47"/>
+    </row>
+    <row r="106" spans="2:8" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="31"/>
+      <c r="C106" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D105" s="60" t="s">
+      <c r="D106" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="62"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="78">
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="47"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="38">
         <v>2</v>
       </c>
-      <c r="C106" s="71" t="s">
+      <c r="C107" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="73"/>
-    </row>
-    <row r="107" spans="2:8" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="94"/>
-      <c r="C107" s="68" t="s">
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="34"/>
+    </row>
+    <row r="108" spans="2:8" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="27"/>
+      <c r="C108" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D107" s="75" t="s">
+      <c r="D108" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="E107" s="95"/>
-      <c r="F107" s="95"/>
-      <c r="G107" s="95"/>
-      <c r="H107" s="96"/>
-    </row>
-    <row r="108" spans="2:8" ht="52.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="94"/>
-      <c r="C108" s="68" t="s">
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="37"/>
+    </row>
+    <row r="109" spans="2:8" ht="52.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="27"/>
+      <c r="C109" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D108" s="75" t="s">
+      <c r="D109" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="95"/>
-      <c r="H108" s="96"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="94"/>
-      <c r="C109" s="68" t="s">
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="37"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="27"/>
+      <c r="C110" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D110" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="E109" s="95"/>
-      <c r="F109" s="95"/>
-      <c r="G109" s="95"/>
-      <c r="H109" s="96"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="94"/>
-      <c r="C110" s="68" t="s">
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="37"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="27"/>
+      <c r="C111" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D110" s="75" t="s">
+      <c r="D111" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E110" s="95"/>
-      <c r="F110" s="95"/>
-      <c r="G110" s="95"/>
-      <c r="H110" s="96"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="97"/>
-      <c r="C111" s="68" t="s">
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="37"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="28"/>
+      <c r="C112" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D111" s="75" t="s">
+      <c r="D112" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95"/>
-      <c r="G111" s="95"/>
-      <c r="H111" s="96"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="65" t="s">
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="37"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="67"/>
-    </row>
-    <row r="113" spans="2:8" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="98">
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="41"/>
+    </row>
+    <row r="114" spans="2:8" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="23">
         <v>1</v>
       </c>
-      <c r="C113" s="99" t="s">
+      <c r="C114" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D113" s="100"/>
-      <c r="E113" s="100"/>
-      <c r="F113" s="100"/>
-      <c r="G113" s="100"/>
-      <c r="H113" s="100"/>
-    </row>
-    <row r="114" spans="2:8" ht="27.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="101"/>
-      <c r="C114" s="86" t="s">
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+    </row>
+    <row r="115" spans="2:8" ht="27.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="24"/>
+      <c r="C115" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D114" s="99" t="s">
+      <c r="D115" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E114" s="102"/>
-      <c r="F114" s="102"/>
-      <c r="G114" s="102"/>
-      <c r="H114" s="102"/>
-    </row>
-    <row r="115" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="103">
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="26">
         <v>2</v>
       </c>
-      <c r="C115" s="69" t="s">
+      <c r="C116" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="94"/>
-      <c r="C116" s="68" t="s">
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="27"/>
+      <c r="C117" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D116" s="104" t="s">
+      <c r="D117" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="69"/>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="94"/>
-      <c r="C117" s="68" t="s">
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="27"/>
+      <c r="C118" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D117" s="104" t="s">
+      <c r="D118" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="97"/>
-      <c r="C118" s="68" t="s">
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="28"/>
+      <c r="C119" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="104" t="s">
+      <c r="D119" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="69"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="195">
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
+  <mergeCells count="196">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E25:F27"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="B2:H2"/>
     <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C36:H36"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -3436,49 +3353,157 @@
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="G26:H28"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B100:B106"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="15" max="16383" man="1"/>
-    <brk id="35" max="16383" man="1"/>
-    <brk id="65" max="16383" man="1"/>
-    <brk id="75" max="16383" man="1"/>
+    <brk id="16" max="16383" man="1"/>
+    <brk id="36" max="16383" man="1"/>
+    <brk id="66" max="16383" man="1"/>
+    <brk id="76" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>